--- a/similarities/split_global/harmonic_similarity_timestamps_392.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_392.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min'], ['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000'), ('0:01:14.500000', '0:01:20.420000'), ('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:07.980000'), ('0:02:14.220000', '0:02:19.560000'), ('0:00:38.580000', '0:00:43.300000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:maj'], ['G:min7', 'C:7', 'F:maj6']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:min7', 'C:7', 'F:maj6']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:25.110000', '0:00:28.410000'), ('0:00:43.670000', '0:00:46.980000')]</t>
+          <t>('0:01:03.100000', '0:01:06.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:53.250000', '0:00:56.900000')]</t>
+          <t>('0:00:19.720000', '0:00:23.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11', 'https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=43.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=53.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.72</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'C:maj', 'F:maj']]</t>
+          <t>['D:7', 'G:min', 'F#:dim7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:03.861000', '0:01:06.732000')]</t>
+          <t>('0:00:16.920000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:25.687641', '0:00:32.084739')]</t>
+          <t>('0:01:15.720000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=16.92</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-51#t=25.687641']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=75.72</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_125</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:7/C', 'C', 'C/G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A:7/3', 'G/3', 'G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
+          <t>('0:03:42.740000', '0:03:47.160000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.680000', '0:00:08.620000')]</t>
+          <t>('0:01:07.905000', '0:01:12.107811')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=222.74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=2.68']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=67.905</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>isophonics_189</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'A', 'D', 'E']]</t>
+          <t>['C', 'G', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'F', 'Bb', 'C']]</t>
+          <t>['C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:45.682000', '0:00:57.707000')]</t>
+          <t>('0:00:09.619433', '0:00:16.956938')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:12.780907', '0:00:17.459727')]</t>
+          <t>('0:00:24.220000', '0:00:30.480000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=45.682']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=9.619433</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=12.780907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=24.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:04:13', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:03:54.260000', '0:04:06.860000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=234.26</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:32.874217', '0:00:42.916848')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=32.874217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['Ab:7', 'Db', 'Db:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:7', 'D#:maj/A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:36.660000', '0:00:38.430000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:05.460000', '0:00:13.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=36.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=5.46</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:33.280000', '0:00:35.480000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:05.790000', '0:00:07')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=33.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=5.79</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'F#:min'], ['A', 'B', 'E']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'A:min'], ['C:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D:7', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:31.551043', '0:01:39.341337'), ('0:00:07.935986', '0:00:12.498707')]</t>
+          <t>('0:00:24.420000', '0:00:32.620000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:26.424000', '0:00:31.672000'), ('0:00:12.446000', '0:00:16.277000')]</t>
+          <t>('0:00:07.900000', '0:00:19.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=91.551043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=7.935986']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=26.424', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E/4', 'D/5', 'A']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.172000', '0:00:14.409000')]</t>
+          <t>('0:00:16.200000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:29.915646', '0:01:37.020952')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=9.172']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-266#t=89.915646']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
